--- a/plots/cifar10_resnets_accuracy.xlsx
+++ b/plots/cifar10_resnets_accuracy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\GitHub\xilinx-zcu102-power\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E185FA-2941-407D-BA16-6ABC7CB3916F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A785482-499B-4010-A630-2B962D0D7B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F6C0ABC7-5DD7-42A7-B092-7C8A4F0F14D4}"/>
+    <workbookView xWindow="1920" yWindow="2450" windowWidth="17280" windowHeight="8830" xr2:uid="{F6C0ABC7-5DD7-42A7-B092-7C8A4F0F14D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Network</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>T=10</t>
-  </si>
-  <si>
-    <t>T=14</t>
-  </si>
-  <si>
-    <t>T=18</t>
   </si>
   <si>
     <t>SubResNet-11</t>
@@ -472,15 +466,16 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,16 +500,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0.74209999999999998</v>
@@ -537,16 +526,10 @@
       <c r="H2">
         <v>0.76045000553131104</v>
       </c>
-      <c r="I2">
-        <v>0.7515999972820282</v>
-      </c>
-      <c r="J2">
-        <v>0.7401999831199646</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.75229999999999997</v>
@@ -569,16 +552,10 @@
       <c r="H3">
         <v>0.74724999070167542</v>
       </c>
-      <c r="I3">
-        <v>0.73534998297691345</v>
-      </c>
-      <c r="J3">
-        <v>0.73494997620582581</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.75380000000000003</v>
@@ -601,16 +578,10 @@
       <c r="H4">
         <v>0.75440001487731934</v>
       </c>
-      <c r="I4">
-        <v>0.73864999413490295</v>
-      </c>
-      <c r="J4">
-        <v>0.69470000267028809</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.76759999999999995</v>
@@ -633,16 +604,10 @@
       <c r="H5">
         <v>0.77800001621246295</v>
       </c>
-      <c r="I5">
-        <v>0.73250001668930054</v>
-      </c>
-      <c r="J5">
-        <v>0.72100001573562622</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.84230000000000005</v>
@@ -665,14 +630,8 @@
       <c r="H6" s="2">
         <v>0.84230000000000005</v>
       </c>
-      <c r="I6" s="2">
-        <v>0.84230000000000005</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.84230000000000005</v>
-      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
     </row>
   </sheetData>
